--- a/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
+++ b/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/Medicine/Research Writing/UofT 2019-2022/COVID-19/COVID Refs/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B7D21C-54C7-FC45-8275-E087C734469C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD1FA1-75A9-AB40-83DA-E04A4915BD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtration Factors" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date:</t>
   </si>
@@ -72,48 +72,18 @@
     <t>Average Filtration Factor</t>
   </si>
   <si>
-    <t>Note - first 3 measurements used as equilibration time, and not included in average</t>
-  </si>
-  <si>
     <t>Machine - AccuFit 9000 (Levitt Safety)</t>
   </si>
   <si>
     <t xml:space="preserve">Filtration Factor Testing.  60mL (BD Luer Lock) syringe, occluded on one end.  Filter material tightly taped over open end with packing tape.  Sampling line inserted through hole in sidewall of syringe </t>
   </si>
   <si>
-    <t>HV MERV 14</t>
-  </si>
-  <si>
     <t>Camfil Vacuum Filter MERV15 1 ply</t>
   </si>
   <si>
     <t>Camfil Vacuum Filter MERV15 2 ply</t>
   </si>
   <si>
-    <t>FILTER</t>
-  </si>
-  <si>
-    <t>Run 1</t>
-  </si>
-  <si>
-    <t>Run 2</t>
-  </si>
-  <si>
-    <t>Run 3</t>
-  </si>
-  <si>
-    <t>Run 4</t>
-  </si>
-  <si>
-    <t>Run 5</t>
-  </si>
-  <si>
-    <t>Run 6</t>
-  </si>
-  <si>
-    <t>Run 7</t>
-  </si>
-  <si>
     <t>Location:</t>
   </si>
   <si>
@@ -127,6 +97,27 @@
   </si>
   <si>
     <t>WN</t>
+  </si>
+  <si>
+    <t>Overall Filtration Factor is given by a formula, where n= no. of runs, here n=7:</t>
+  </si>
+  <si>
+    <t>Overall FF = 1/(1/ff1 + 1/ff2 + 1/ff3 + 1/ff4 + 1/ff5 + 1/ff6 +1/ff7)</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Note 1 - first 3 measurements used as equilibration time, and not included in average</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Filtration Factor (Outside particulate concentration : Inside particulate concentration, averaged by integral/time)</t>
+  </si>
+  <si>
+    <t>HV MERV 14 1 ply</t>
   </si>
 </sst>
 </file>
@@ -150,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -212,6 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +579,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,12 +591,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -608,35 +609,51 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -660,15 +677,15 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
+      <c r="A8" s="1">
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>143</v>
@@ -708,8 +725,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="1">
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>171</v>
@@ -749,8 +766,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+      <c r="A10" s="1">
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>151</v>
@@ -790,8 +807,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
+      <c r="A11">
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>165</v>
@@ -831,8 +848,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
+      <c r="A12">
+        <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>165</v>
@@ -872,8 +889,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
+      <c r="A13">
+        <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>167</v>
@@ -913,8 +930,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
+      <c r="A14">
+        <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>155</v>
@@ -954,37 +971,40 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>155</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>53.54</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>557.80999999999995</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>113.09</v>
       </c>
-      <c r="G15" s="1">
+      <c r="F15" s="9">
+        <v>27.41</v>
+      </c>
+      <c r="G15" s="9">
         <v>14.56</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="9">
         <v>2366.19</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="9">
         <v>39.85</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="9">
         <v>473.91</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="9">
         <v>41.05</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="9">
         <v>107.54</v>
       </c>
     </row>
@@ -1044,7 +1064,20 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1084,6 +1117,9 @@
       <c r="I35" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
+++ b/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD1FA1-75A9-AB40-83DA-E04A4915BD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA1D2ED-5B24-254C-9229-6C2C49DA05EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
+    <workbookView xWindow="2980" yWindow="-22680" windowWidth="28800" windowHeight="16940" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtration Factors" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Date:</t>
   </si>
@@ -118,6 +119,30 @@
   </si>
   <si>
     <t>HV MERV 14 1 ply</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Vacuum Filter MERV15 1 ply</t>
+  </si>
+  <si>
+    <t>Vacuum Filter MERV15 2 ply</t>
+  </si>
+  <si>
+    <t>MERV 14</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Last 4 Average</t>
+  </si>
+  <si>
+    <t>Note - first 3 measurements used as equilibration time</t>
+  </si>
+  <si>
+    <t>Repeat Test</t>
   </si>
 </sst>
 </file>
@@ -209,10 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,20 +652,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -971,40 +996,40 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>155</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>53.54</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>557.80999999999995</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>113.09</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>27.41</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>14.56</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>2366.19</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>39.85</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>473.91</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>41.05</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>107.54</v>
       </c>
     </row>
@@ -1123,4 +1148,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C3C0EC-AD9F-DE41-B893-FCDDE0BFBA64}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>428.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>29.52</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13.06</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7431.23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>432.02</v>
+      </c>
+      <c r="L3" s="1">
+        <v>31.08</v>
+      </c>
+      <c r="M3" s="1">
+        <v>77.849999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55.17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>553.35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>96.77</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28.04</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="H4" s="1">
+        <v>70.95</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1794.58</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44.61</v>
+      </c>
+      <c r="K4" s="1">
+        <v>495.42</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43.68</v>
+      </c>
+      <c r="M4" s="1">
+        <v>105.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56.08</v>
+      </c>
+      <c r="D5" s="1">
+        <v>562.07000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>266.33</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30.11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>264.26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1816.7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>52.51</v>
+      </c>
+      <c r="K5" s="1">
+        <v>496.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>43.24</v>
+      </c>
+      <c r="M5" s="1">
+        <v>113.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>53.09</v>
+      </c>
+      <c r="D6">
+        <v>554.04</v>
+      </c>
+      <c r="E6">
+        <v>242.92</v>
+      </c>
+      <c r="F6">
+        <v>33.07</v>
+      </c>
+      <c r="G6">
+        <v>23.06</v>
+      </c>
+      <c r="H6">
+        <v>621.61</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1453.35</v>
+      </c>
+      <c r="J6">
+        <v>55.5</v>
+      </c>
+      <c r="K6">
+        <v>494.74</v>
+      </c>
+      <c r="L6">
+        <v>42.61</v>
+      </c>
+      <c r="M6">
+        <v>124.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>51.57</v>
+      </c>
+      <c r="D7">
+        <v>513.72</v>
+      </c>
+      <c r="E7">
+        <v>225.9</v>
+      </c>
+      <c r="F7">
+        <v>31.09</v>
+      </c>
+      <c r="G7">
+        <v>29.7</v>
+      </c>
+      <c r="H7">
+        <v>2182.11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1797.04</v>
+      </c>
+      <c r="J7">
+        <v>58.82</v>
+      </c>
+      <c r="K7">
+        <v>404.21</v>
+      </c>
+      <c r="L7">
+        <v>44.25</v>
+      </c>
+      <c r="M7">
+        <v>116.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>52.8</v>
+      </c>
+      <c r="D8">
+        <v>593.11</v>
+      </c>
+      <c r="E8">
+        <v>338.89</v>
+      </c>
+      <c r="F8">
+        <v>31.56</v>
+      </c>
+      <c r="G8">
+        <v>32.47</v>
+      </c>
+      <c r="H8">
+        <v>10008.58</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4197.66</v>
+      </c>
+      <c r="J8">
+        <v>61.09</v>
+      </c>
+      <c r="K8">
+        <v>545.98</v>
+      </c>
+      <c r="L8">
+        <v>44.09</v>
+      </c>
+      <c r="M8">
+        <v>115.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>53.46</v>
+      </c>
+      <c r="D9">
+        <v>840.48</v>
+      </c>
+      <c r="E9">
+        <v>409.79</v>
+      </c>
+      <c r="F9">
+        <v>30.5</v>
+      </c>
+      <c r="G9">
+        <v>30.32</v>
+      </c>
+      <c r="H9">
+        <v>6502.21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4285.79</v>
+      </c>
+      <c r="J9">
+        <v>61.82</v>
+      </c>
+      <c r="K9">
+        <v>477.38</v>
+      </c>
+      <c r="L9">
+        <v>42.44</v>
+      </c>
+      <c r="M9">
+        <v>115.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1">
+        <v>53.54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>557.80999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>113.09</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>14.56</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>2366.19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>39.85</v>
+      </c>
+      <c r="K10" s="1">
+        <v>473.91</v>
+      </c>
+      <c r="L10" s="1">
+        <v>41.05</v>
+      </c>
+      <c r="M10" s="1">
+        <v>107.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B6:B9)</f>
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:M12" si="0">AVERAGE(C6:C9)</f>
+        <v>52.73</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>625.33749999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>304.375</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>31.555</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>28.887499999999996</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4828.6274999999996</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2933.46</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>59.307499999999997</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>480.57749999999999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>43.347499999999997</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>118.0675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>16864.46</v>
+      </c>
+      <c r="I24" s="1">
+        <v>60.81</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>16121.57</v>
+      </c>
+      <c r="I25" s="1">
+        <v>289.66000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>2202.9699999999998</v>
+      </c>
+      <c r="I26" s="1">
+        <v>455.11</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>6496.04</v>
+      </c>
+      <c r="I27" s="1">
+        <v>525.91999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>13340.07</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>22360.02</v>
+      </c>
+      <c r="I29" s="1">
+        <v>258.98</v>
+      </c>
+      <c r="M29">
+        <v>366.19</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>21833.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
+++ b/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA1D2ED-5B24-254C-9229-6C2C49DA05EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97CEAB6-D8C3-194E-9799-C01B18BBCD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="-22680" windowWidth="28800" windowHeight="16940" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
+    <workbookView xWindow="2980" yWindow="-22680" windowWidth="35840" windowHeight="20440" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtration Factors" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Date:</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Repeat Test</t>
+  </si>
+  <si>
+    <t>HVMerv14 1-ply</t>
+  </si>
+  <si>
+    <t>HVMerv14 2-ply</t>
+  </si>
+  <si>
+    <t>HVMerv14 1-ply  &amp; H100 1-ply</t>
+  </si>
+  <si>
+    <t>4/26/2020 Additional Filters</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +206,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -238,6 +268,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A38A38-0DD6-7748-92AD-D4F5A8C5C446}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,17 +648,17 @@
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -632,15 +666,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -651,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
@@ -667,7 +704,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -707,8 +744,17 @@
       <c r="M7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -748,8 +794,17 @@
       <c r="M8" s="1">
         <v>77.849999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="10">
+        <v>22.9</v>
+      </c>
+      <c r="P8" s="10">
+        <v>273.5</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>85.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -789,8 +844,17 @@
       <c r="M9" s="1">
         <v>105.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>304</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -830,8 +894,17 @@
       <c r="M10" s="1">
         <v>113.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -871,8 +944,17 @@
       <c r="M11">
         <v>124.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>28</v>
+      </c>
+      <c r="P11">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -912,8 +994,17 @@
       <c r="M12">
         <v>116.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>239.6</v>
+      </c>
+      <c r="Q12">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -953,8 +1044,17 @@
       <c r="M13">
         <v>115.86</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>24.8</v>
+      </c>
+      <c r="P13">
+        <v>295.3</v>
+      </c>
+      <c r="Q13">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -994,8 +1094,17 @@
       <c r="M14">
         <v>115.81</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>27.9</v>
+      </c>
+      <c r="P14">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1032,9 +1141,18 @@
       <c r="M15" s="8">
         <v>107.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="P15" s="11">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1086,8 +1204,20 @@
         <f t="shared" si="0"/>
         <v>118.0675</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="7">
+        <f>AVERAGE(O11:O14)</f>
+        <v>26.424999999999997</v>
+      </c>
+      <c r="P17" s="12">
+        <f>AVERAGE(P11:P14)</f>
+        <v>265.85000000000002</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>AVERAGE(Q11:Q14)</f>
+        <v>76.474999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1095,37 +1225,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>

--- a/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
+++ b/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97CEAB6-D8C3-194E-9799-C01B18BBCD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993E56F-CB7D-A347-B458-BE9AD3708AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="-22680" windowWidth="35840" windowHeight="20440" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
+    <workbookView xWindow="-10940" yWindow="-26060" windowWidth="49760" windowHeight="24880" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtration Factors" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Date:</t>
   </si>
@@ -155,13 +155,16 @@
   </si>
   <si>
     <t>4/26/2020 Additional Filters</t>
+  </si>
+  <si>
+    <t>Blue Shop Towel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +174,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -265,13 +276,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A38A38-0DD6-7748-92AD-D4F5A8C5C446}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,17 +662,17 @@
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -666,18 +680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="11">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -688,73 +705,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -794,17 +816,17 @@
       <c r="M8" s="1">
         <v>77.849999999999994</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>22.9</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>273.5</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>85.15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -844,17 +866,17 @@
       <c r="M9" s="1">
         <v>105.32</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>25.5</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>304</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>84.4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -894,17 +916,17 @@
       <c r="M10" s="1">
         <v>113.11</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>27.1</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>286.89999999999998</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>82.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -954,7 +976,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1004,7 +1026,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1054,7 +1076,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1104,54 +1126,56 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="14">
         <v>155</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="14">
         <v>53.54</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="14">
         <v>557.80999999999995</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="14">
         <v>113.09</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="14">
         <v>27.41</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="14">
         <v>14.56</v>
       </c>
-      <c r="I15" s="8">
+      <c r="H15" s="15"/>
+      <c r="I15" s="14">
         <v>2366.19</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="14">
         <v>39.85</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="14">
         <v>473.91</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="14">
         <v>41.05</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="14">
         <v>107.54</v>
       </c>
-      <c r="O15" s="11">
+      <c r="N15" s="15"/>
+      <c r="O15" s="16">
         <v>25.8</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="16">
         <v>273.89999999999998</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="16">
         <v>79.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
@@ -1208,7 +1232,7 @@
         <f>AVERAGE(O11:O14)</f>
         <v>26.424999999999997</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="10">
         <f>AVERAGE(P11:P14)</f>
         <v>265.85000000000002</v>
       </c>

--- a/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
+++ b/04-Testing/Results/Filter Filtration Factor Testing 2020.04.20 AccuFIT AS WN with pic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993E56F-CB7D-A347-B458-BE9AD3708AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E55F1-BE4D-7745-AAE1-35614C558932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10940" yWindow="-26060" windowWidth="49760" windowHeight="24880" xr2:uid="{08DD48C9-3845-9945-B0E9-9104EFD45640}"/>
   </bookViews>
@@ -279,13 +279,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,26 +706,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -746,7 +746,7 @@
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
@@ -765,7 +765,7 @@
       <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
@@ -1130,48 +1130,48 @@
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>155</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>53.54</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>557.80999999999995</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>113.09</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>27.41</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>14.56</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14">
+      <c r="H15" s="14"/>
+      <c r="I15" s="13">
         <v>2366.19</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>39.85</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>473.91</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>41.05</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>107.54</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16">
+      <c r="N15" s="14"/>
+      <c r="O15" s="15">
         <v>25.8</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>273.89999999999998</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="15">
         <v>79.5</v>
       </c>
     </row>
